--- a/backend/auxiliar/albireo.simbad.xlsx
+++ b/backend/auxiliar/albireo.simbad.xlsx
@@ -1009,7 +1009,7 @@
         <v>-2.81</v>
       </c>
       <c r="J11" t="n">
-        <v>5.948888893626201e-05</v>
+        <v>5.948888893626203e-05</v>
       </c>
       <c r="K11" t="n">
         <v>1257.659057617188</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0005523598064026557</v>
+        <v>0.0005523598064026558</v>
       </c>
       <c r="K13" t="n">
         <v>1378.947143554688</v>
@@ -1165,7 +1165,7 @@
         <v>-18.07</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002793596853207575</v>
+        <v>0.0002793596853207574</v>
       </c>
       <c r="K14" t="n">
         <v>403.990478515625</v>
@@ -1373,7 +1373,7 @@
         <v>2.46</v>
       </c>
       <c r="J18" t="n">
-        <v>0.008543152790713068</v>
+        <v>0.008543152790710273</v>
       </c>
       <c r="K18" t="n">
         <v>683.22802734375</v>
